--- a/tablas/medidas_heart_preprocesado2.xlsx
+++ b/tablas/medidas_heart_preprocesado2.xlsx
@@ -307,40 +307,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>379.0</v>
+        <v>442.0</v>
       </c>
       <c r="C6" t="n">
-        <v>117.0</v>
+        <v>67.0</v>
       </c>
       <c r="D6" t="n">
-        <v>293.0</v>
+        <v>343.0</v>
       </c>
       <c r="E6" t="n">
-        <v>129.0</v>
+        <v>66.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7641129032258065</v>
+        <v>0.8683693516699411</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7460629921259843</v>
+        <v>0.8700787401574803</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7146341463414634</v>
+        <v>0.8365853658536585</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7549800796812749</v>
+        <v>0.8692232055063914</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7320261437908496</v>
+        <v>0.855119825708061</v>
       </c>
       <c r="K6" t="n">
-        <v>0.45940019533868276</v>
+        <v>0.7068303950900682</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7301794912861568</v>
+        <v>0.8531677098649104</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7840455156520075</v>
+        <v>0.9190896869598638</v>
       </c>
     </row>
     <row r="7">
@@ -353,37 +353,37 @@
         <v>450.0</v>
       </c>
       <c r="C7" t="n">
-        <v>84.0</v>
+        <v>83.0</v>
       </c>
       <c r="D7" t="n">
-        <v>326.0</v>
+        <v>327.0</v>
       </c>
       <c r="E7" t="n">
         <v>58.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8426966292134831</v>
+        <v>0.8442776735459663</v>
       </c>
       <c r="G7" t="n">
         <v>0.8858267716535433</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7951219512195122</v>
+        <v>0.7975609756097561</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8637236084452975</v>
+        <v>0.8645533141210374</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8453159041394336</v>
+        <v>0.8464052287581699</v>
       </c>
       <c r="K7" t="n">
-        <v>0.68513956117214</v>
+        <v>0.6874308758542416</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8392498502351053</v>
+        <v>0.8405360576568032</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8404743614365278</v>
+        <v>0.8416938736316497</v>
       </c>
     </row>
   </sheetData>
